--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_013.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_013.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295024EK2.21) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
-  </si>
-  <si>
-    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
-  </si>
-  <si>
-    <t>(295003AA1.04) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) DC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(295023AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Non-coincident SCRAM function</t>
-  </si>
-  <si>
-    <t>(295030EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/suppression chamber differential pressure (Mark I, II)</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295004AK2.02) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) Batteries</t>
-  </si>
-  <si>
-    <t>(295006AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Reactivity control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295018AA1.01) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Backup systems </t>
-  </si>
-  <si>
-    <t>(295027EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Hydrogen recombiners</t>
-  </si>
-  <si>
-    <t>(295038EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295026EK2.08) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
-  </si>
-  <si>
-    <t>(295025EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Exceeding safety limits</t>
-  </si>
-  <si>
-    <t>(295005AA1.01) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Recirculation system</t>
-  </si>
-  <si>
-    <t>(295019AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Service air isolations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295001AK2.12) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Recirculation flow control system</t>
-  </si>
-  <si>
-    <t>(700000AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Voltage disturbance</t>
-  </si>
-  <si>
-    <t>(295010AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Termination of drywell inerting</t>
-  </si>
-  <si>
-    <t>(295002AA2.03) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Generator output</t>
-  </si>
-  <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295033EK2.05) Knowledge of the relationship between the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS and the following systems or components: (CFR: 41.7 / 45.8) Primary system discharging into secondary containment</t>
-  </si>
-  <si>
-    <t>(295020AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.8 to 41.10) Loss of reactor building HVAC</t>
-  </si>
-  <si>
-    <t>(295029EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) HPCS</t>
-  </si>
-  <si>
-    <t>(223002A2.07) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Various process instrumentation failures</t>
-  </si>
-  <si>
-    <t>(300000K4.06) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Maintaining normal instrument air pressure</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(262002A4.01) Ability to manually operate and/or monitor the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
-  </si>
-  <si>
-    <t>(215004K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.5 / 45.3) Detector operation</t>
-  </si>
-  <si>
-    <t>(215003K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.7 / 45.7) 24/48 volt DC power</t>
-  </si>
-  <si>
-    <t>(211000A3.06) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) RWCU system isolation</t>
-  </si>
-  <si>
-    <t>(203000A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(239002K3.04) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Automatic depressurization system</t>
-  </si>
-  <si>
-    <t>(205000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(263000A2.02) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of ventilation during charging</t>
-  </si>
-  <si>
-    <t>(400000K4.08) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) System response to LOOP signal</t>
-  </si>
-  <si>
-    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (291002K1.06) SENSORS AND DETECTORS (CFR: 41.7) (LEVEL) Temperature/pressure compensation requirements</t>
-  </si>
-  <si>
-    <t>(217000A4.02) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Turbine trip throttle valve reset</t>
-  </si>
-  <si>
-    <t>(212000K2.02) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS logic</t>
-  </si>
-  <si>
-    <t>(510000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Radiation alarm response</t>
-  </si>
-  <si>
-    <t>(215005K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) IRMs</t>
-  </si>
-  <si>
-    <t>(209002A3.01) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(209001A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Torus/suppression pool water level</t>
-  </si>
-  <si>
-    <t>(264000K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant loads</t>
-  </si>
-  <si>
-    <t>(261000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) HIGH-PRESSURE COOLANT INJECTION SYSTEM (BWR 2, 3, 4)</t>
-  </si>
-  <si>
-    <t>(223002A2.10) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of coolant accidents</t>
-  </si>
-  <si>
-    <t>(300000K4.02) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Crossover to other pneumatic systems</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(262002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(201001K3.03) Knowledge of the effect that a loss or malfunction of the (SF1 CRDH) CRD HYDRAULIC SYSTEM will have on the following systems or system parameters: (CFR: 41.5-7 / 45.1-3 / 45.5-6 / 45.8 / 45.10 / 45.12) Control rod drive mechanisms</t>
-  </si>
-  <si>
-    <t>(272000K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(268000A2.04) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Radiological release isolation valve failure</t>
-  </si>
-  <si>
-    <t>(204000K4.07) Knowledge of (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Draining of reactor water</t>
-  </si>
-  <si>
-    <t>(216000) (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION (291006K1.11) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Relationship between condenser vacuum and backpressure</t>
-  </si>
-  <si>
-    <t>(290001A4.01) Ability to manually operate and/or monitor the (SF5 SC) SECONDARY CONTAINMENT in the control room: (CFR: 41.7 / 45.5 to 45.8) Reactor building differential pressure</t>
-  </si>
-  <si>
-    <t>(241000K2.02) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Controls</t>
-  </si>
-  <si>
-    <t>(226001K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE : (CFR: 41.5 / 45.3) Vacuum breaker operation</t>
-  </si>
-  <si>
-    <t>(230000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE: (CFR: 41.7 / 45.7) High drywell pressure</t>
-  </si>
-  <si>
-    <t>(259001A3.07) Ability to monitor automatic operation of the (SF2 FWS) FEEDWATER SYSTEM including: (CFR: 41.7 / 45.7) FWRV position</t>
-  </si>
-  <si>
-    <t>(288000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 PVS) PLANT VENTILATION SYSTEMS including: (CFR: 41.5 / 45.5) Secondary containment differential pressure</t>
-  </si>
-  <si>
-    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+    <t xml:space="preserve">(295030EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) RCIC </t>
+  </si>
+  <si>
+    <t>(600000AA2.06) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Need for pressurizing control room (recirculating mode)</t>
+  </si>
+  <si>
+    <t>(700000AK2.10) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Emergency generators (diesel/jet)</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295024EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295021AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295027EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Safety relief valves</t>
+  </si>
+  <si>
+    <t>(295018AA2.06) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Surge tank level</t>
+  </si>
+  <si>
+    <t>(295023AK2.02) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295025EK3.09) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Low-low set initiation</t>
+  </si>
+  <si>
+    <t>(295005AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor level control</t>
+  </si>
+  <si>
+    <t>(295001AA1.03) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(295003AA2.02) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Reactor power, pressure, and level</t>
+  </si>
+  <si>
+    <t>(295037EK2.21) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) Low-pressure core spray</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(295006AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Direct turbine generator trip</t>
+  </si>
+  <si>
+    <t>(295016AK2.10) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Shutdown cooling system (RHR shutdown cooling mode)</t>
+  </si>
+  <si>
+    <t>(295026EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) HPCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295007AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reducing reactor power</t>
+  </si>
+  <si>
+    <t>(295002AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Offgas flow changes</t>
+  </si>
+  <si>
+    <t>(295034EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.7 / 45.6) Secondary containment ventilation</t>
+  </si>
+  <si>
+    <t>(295033EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan</t>
+  </si>
+  <si>
+    <t>(295017AK2.14) Knowledge of the relationship between the (APE 17) ABNORMAL OFFSITE RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) PCIS/NSSSS</t>
+  </si>
+  <si>
+    <t>(400000A2.04) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Radiation monitoring system alarm</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(203000A4.15) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Room coolers</t>
+  </si>
+  <si>
+    <t>(212000K3.07) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power</t>
+  </si>
+  <si>
+    <t>(209002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Abnormal condensate storage tank water level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(239002A3.02) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) SRV operation on high reactor pressure </t>
+  </si>
+  <si>
+    <t>(262002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Static switch/inverter operation</t>
+  </si>
+  <si>
+    <t>(264000K2.02) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) Fuel oil pumps</t>
+  </si>
+  <si>
+    <t>(209001A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Core spray flow</t>
+  </si>
+  <si>
+    <t>(205000K4.03) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Low reactor water level</t>
+  </si>
+  <si>
+    <t>(510000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SWS*) SERVICE WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) Emergency generators (diesel/jet)</t>
+  </si>
+  <si>
+    <t>(215004A2.01) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Degraded power supply</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (291008K1.03) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Meaning and/or the loss of power supply circuit breaker indicator lights and capability to remotely open and close</t>
+  </si>
+  <si>
+    <t>(300000A4.02) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Instrument air compressors</t>
+  </si>
+  <si>
+    <t>(263000K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 DC) DC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant systems using DC control power</t>
+  </si>
+  <si>
+    <t>(262001K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Breaker malfunctions</t>
+  </si>
+  <si>
+    <t>(211000A3.08) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) System initiation</t>
+  </si>
+  <si>
+    <t>(217000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Flow control</t>
+  </si>
+  <si>
+    <t>(259002K2.01) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(215003A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Control rod block status</t>
+  </si>
+  <si>
+    <t>(215005K4.06) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) Effects of detector aging on LPRM/APRM readings</t>
+  </si>
+  <si>
+    <t>(218000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) LPCS system</t>
+  </si>
+  <si>
+    <t>(400000A2.11) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to reactor recirculation pump</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(203000A4.02) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) System valves</t>
+  </si>
+  <si>
+    <t>(212000K3.03) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Nuclear instrumentation</t>
+  </si>
+  <si>
+    <t>(202001K4.10) Knowledge of (SF1, SF4 RS) RECIRCULATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Pump start permissives</t>
+  </si>
+  <si>
+    <t>(201001K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 CRDH) CRD HYDRAULIC SYSTEM and the following systems: (CFR: 41.1-3 to 41.5-8 / 45.1-6 / 45.8) Control rod drive mechanisms</t>
+  </si>
+  <si>
+    <t>(202002A2.02) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of AC electrical power</t>
+  </si>
+  <si>
+    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (291001K1.11) VALVES (CFR: 41.3) Operation of valves and verification of position</t>
+  </si>
+  <si>
+    <t>(290003A4.05) Ability to manually operate and/or monitor the (SF9 CRV) CONTROL ROOM VENTILATION in the control room: (CFR: 41.7 / 45.5 to 45.8) Heaters</t>
+  </si>
+  <si>
+    <t>(256000K3.11) Knowledge of the effect that a loss or malfunction of the (SF2 CDS) CONDENSATE SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t>(290001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 SC) SECONDARY CONTAINMENT: (CFR: 41.7 / 45.7) SGTS/FRVS</t>
+  </si>
+  <si>
+    <t>(201003K4.04) Knowledge of (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM design features and/or interlocks that provide for the following: (CFR: 41.1-7 / 41.10 / 45.1-6) Scramming of the control rod with accumulator or RPV pressure</t>
+  </si>
+  <si>
+    <t>(230000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE: (CFR: 41.5 / 45.3) Pump cavitation/vortex</t>
+  </si>
+  <si>
+    <t>(239001K2.02) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Main steam line shutoff valves</t>
+  </si>
+  <si>
+    <t>(216000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION including: (CFR: 41.5 / 45.5) RPV level</t>
+  </si>
+  <si>
+    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292004K1.03) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain resonance absorption</t>
+  </si>
+  <si>
+    <t>(292005K1.04) CONTROL RODS (CFR: 41.1) Predict direction of change in reactor power for a change in control rod position</t>
+  </si>
+  <si>
+    <t>(292003K1.06) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the effect of delayed neutrons on reactor period</t>
+  </si>
+  <si>
+    <t>(293009K1.12) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Describe the mode of fuel failure for APLHGR</t>
+  </si>
+  <si>
+    <t>(293006K1.06) FLUID STATICS AND DYNAMICS (CFR: 41.14) Discuss methods of prevention of fluid/water hammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(293007K1.09) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) Discuss operational implications of condensate </t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(600000AA2.11) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit for use of respirators</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295021AA2.01) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Containment/drywell temperature</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295020AA2.03) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(239002A2.03) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck-open SRV</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(264000A2.07) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of offsite power</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(223001A2.04) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High containment/drywell hydrogen concentration</t>
+  </si>
+  <si>
+    <t>(271000) (SF9 OG) OFFGAS SYSTEM (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(226001A2.10) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Nuclear boiler instrument failures</t>
+  </si>
+  <si>
+    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
   </si>
   <si>
     <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
   </si>
   <si>
-    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292004K1.14) REACTIVITY COEFFICIENTS (CFR: 41.1) Compare the relative magnitudes of the temperature, Doppler, and void coefficients of reactivity</t>
-  </si>
-  <si>
-    <t>(292008K1.18) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Describe the means by which reactor power will be increased to rated power</t>
-  </si>
-  <si>
-    <t>(292005K1.07) CONTROL RODS (CFR: 41.1) Define control rod worth, differential CRW, and integral control rod worth</t>
-  </si>
-  <si>
-    <t>(293006K1.13) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Explain the importance of proper system venting for pump operations</t>
-  </si>
-  <si>
-    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
-  </si>
-  <si>
-    <t>(293007K1.02) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Describe thermal conductivity</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(600000AA2.07) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Whether malfunction(s) are due to common-mode electrical failures</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AA2.02) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Fuel pool level</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(295037EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(500000EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen concentration limits for drywell</t>
-  </si>
-  <si>
-    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(215004A2.01) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Degraded power supply</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(211000A2.06) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal valve position </t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(271000A2.14) Ability to (a) predict the impacts of the following on the (SF9 OG) OFFGAS SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6 / 45.8) Offgas filter high differential pressure</t>
-  </si>
-  <si>
-    <t>(290003) (SF9 CRV) CONTROL ROOM VENTILATION (G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(201003A2.02) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Uncoupled rod</t>
-  </si>
-  <si>
-    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>K2</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
     <t>K1</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>G</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K5</t>
   </si>
   <si>
     <t>K4</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,67 +385,70 @@
     <t>T</t>
   </si>
   <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
     <t>295024</t>
   </si>
   <si>
-    <t>600000</t>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295001</t>
   </si>
   <si>
     <t>295003</t>
   </si>
   <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
     <t>295037</t>
   </si>
   <si>
-    <t>295004</t>
+    <t>295038</t>
   </si>
   <si>
     <t>295006</t>
   </si>
   <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
     <t>295016</t>
   </si>
   <si>
     <t>295026</t>
   </si>
   <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
     <t>295019</t>
   </si>
   <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295010</t>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295007</t>
   </si>
   <si>
     <t>295002</t>
@@ -457,145 +460,142 @@
     <t>295033</t>
   </si>
   <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
     <t>295020</t>
   </si>
   <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>241000</t>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>271000</t>
   </si>
   <si>
     <t>226001</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>201003</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="D33" t="s">
         <v>113</v>
@@ -1528,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D34" t="s">
         <v>114</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,7 +1698,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D44" t="s">
         <v>113</v>
@@ -1715,7 +1715,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D45" t="s">
         <v>114</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,7 +1987,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D61" t="s">
         <v>113</v>
@@ -2004,7 +2004,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D62" t="s">
         <v>114</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2398,7 +2398,7 @@
         <v>3.8</v>
       </c>
       <c r="D85" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2432,7 +2432,7 @@
         <v>4.4</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
